--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-fd-report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <r>
       <rPr>
@@ -1917,6 +1917,9 @@
     <t>sort</t>
   </si>
   <si>
+    <t>type_sequence</t>
+  </si>
+  <si>
     <t>fd_report-8</t>
   </si>
   <si>
@@ -1927,6 +1930,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>要求</t>
     </r>
     <r>
@@ -1980,6 +1988,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>从类型字段搜索要求或缺陷，然后选择合适版本以缩小范围，最后单击</t>
     </r>
     <r>
@@ -2026,6 +2039,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>缺陷</t>
     </r>
     <r>
@@ -2117,7 +2135,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>N_TEST_MENU</t>
+    <t>N_TEST</t>
   </si>
 </sst>
 </file>
@@ -2125,12 +2143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2169,6 +2187,12 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2209,9 +2233,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2225,10 +2307,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2241,10 +2361,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2256,103 +2376,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2436,7 +2460,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2448,19 +2532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,31 +2568,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2508,61 +2598,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2574,49 +2634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2723,17 +2747,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2757,16 +2777,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2786,6 +2806,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2801,170 +2830,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2978,7 +3002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2986,44 +3010,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3036,7 +3060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3675,10 +3699,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3717,7 +3741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3751,134 +3775,146 @@
       <c r="K7" t="s">
         <v>60</v>
       </c>
+      <c r="L7" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="8" spans="5:11">
+    <row r="8" spans="5:12">
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="7">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12">
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="G9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="8">
-        <v>10</v>
+      <c r="J9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="7">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>90</v>
       </c>
     </row>
-    <row r="9" spans="5:11">
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="5:11">
+    <row r="10" spans="5:12">
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="8">
+        <v>76</v>
+      </c>
+      <c r="K10" s="7">
         <v>30</v>
+      </c>
+      <c r="L10">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" t="str">
         <f>E8</f>
         <v>fd_report-8</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" t="str">
         <f>E9</f>
         <v>fd_report-9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" t="str">
         <f>E10</f>
         <v>fd_report-10</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-fd-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2143,12 +2143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2177,6 +2177,13 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2234,7 +2241,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2248,137 +2383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2460,7 +2467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,19 +2485,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2508,25 +2557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2538,7 +2581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2550,13 +2593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2568,7 +2617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2580,13 +2629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2598,49 +2647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2749,17 +2756,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -2767,11 +2763,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2787,6 +2789,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2815,17 +2828,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2847,162 +2854,164 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3010,44 +3019,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3060,7 +3069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3461,155 +3470,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="14"/>
+    <row r="2" spans="5:5">
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="3:7">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="28"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="27" t="s">
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="30" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="24" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="32" t="s">
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3619,64 +3628,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="36" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="36" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="36" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="36" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="17"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="38" t="s">
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3701,43 +3710,43 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
-    <col min="4" max="4" width="29.4148148148148" customWidth="1"/>
+    <col min="2" max="2" width="8.50694444444444" customWidth="1"/>
+    <col min="4" max="4" width="29.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="18.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.9111111111111" customWidth="1"/>
+    <col min="6" max="6" width="12.9097222222222" customWidth="1"/>
     <col min="7" max="7" width="21.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="21.0814814814815" customWidth="1"/>
+    <col min="9" max="9" width="21.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3751,19 +3760,19 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="s">
@@ -3775,30 +3784,30 @@
       <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="5:12">
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="9">
         <v>10</v>
       </c>
       <c r="L8">
@@ -3806,25 +3815,25 @@
       </c>
     </row>
     <row r="9" spans="5:12">
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="9">
         <v>20</v>
       </c>
       <c r="L9">
@@ -3835,22 +3844,22 @@
       <c r="E10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="9">
         <v>30</v>
       </c>
       <c r="L10">
@@ -3861,59 +3870,59 @@
       <c r="A13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="5:7">
-      <c r="E14" s="5" t="s">
+    <row r="14" s="1" customFormat="1" spans="5:7">
+      <c r="E14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="7" t="str">
         <f>E8</f>
         <v>fd_report-8</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="5:7">
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="7" t="str">
         <f>E9</f>
         <v>fd_report-9</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="5:7">
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F16" t="str">
         <f>E10</f>
         <v>fd_report-10</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>84</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/test_manager_service/hzero_platform/test-fd-report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <r>
       <rPr>
@@ -2143,8 +2143,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2238,13 +2238,6 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2276,6 +2269,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2301,7 +2339,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2314,24 +2368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2347,45 +2386,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2467,19 +2467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2497,19 +2491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,25 +2515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,19 +2533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2575,7 +2551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2593,7 +2575,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2605,49 +2629,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2804,6 +2804,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2822,192 +2846,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3466,16 +3465,16 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
     <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
@@ -3489,79 +3488,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3569,56 +3568,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3628,64 +3627,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3708,10 +3707,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -3766,13 +3765,13 @@
       <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="s">
@@ -3784,30 +3783,30 @@
       <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="5:12">
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>10</v>
       </c>
       <c r="L8">
@@ -3815,25 +3814,25 @@
       </c>
     </row>
     <row r="9" spans="5:12">
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>20</v>
       </c>
       <c r="L9">
@@ -3844,22 +3843,22 @@
       <c r="E10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>30</v>
       </c>
       <c r="L10">
@@ -3870,10 +3869,10 @@
       <c r="A13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3891,40 +3890,21 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="5:7">
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7" t="str">
-        <f>E8</f>
-        <v>fd_report-8</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" t="str">
+        <f>E10</f>
+        <v>fd_report-10</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="5:7">
-      <c r="E15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="7" t="str">
-        <f>E9</f>
-        <v>fd_report-9</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7">
-      <c r="E16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" t="str">
-        <f>E10</f>
-        <v>fd_report-10</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
